--- a/統合用/クモ仕様書(α統合用).xlsx
+++ b/統合用/クモ仕様書(α統合用).xlsx
@@ -4,16 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="793" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
-    <sheet name="プレイヤー" sheetId="7" r:id="rId2"/>
-    <sheet name="カメラ" sheetId="13" r:id="rId3"/>
-    <sheet name="木" sheetId="10" r:id="rId4"/>
-    <sheet name="糸" sheetId="11" r:id="rId5"/>
-    <sheet name="UI" sheetId="12" r:id="rId6"/>
-    <sheet name="操作説明" sheetId="14" r:id="rId7"/>
+    <sheet name="フローチャート" sheetId="16" r:id="rId2"/>
+    <sheet name="BGM&amp;SE" sheetId="20" r:id="rId3"/>
+    <sheet name="タイトル" sheetId="17" r:id="rId4"/>
+    <sheet name="ステージセレクト" sheetId="18" r:id="rId5"/>
+    <sheet name="ステージ" sheetId="19" r:id="rId6"/>
+    <sheet name="プレイヤー" sheetId="7" r:id="rId7"/>
+    <sheet name="カメラ" sheetId="13" r:id="rId8"/>
+    <sheet name="木" sheetId="10" r:id="rId9"/>
+    <sheet name="糸" sheetId="11" r:id="rId10"/>
+    <sheet name="奪った糸" sheetId="15" r:id="rId11"/>
+    <sheet name="UI" sheetId="12" r:id="rId12"/>
+    <sheet name="操作説明" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -184,16 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>石田さんハイパーリンクお願いします</t>
-    <rPh sb="0" eb="2">
-      <t>イシダ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・移動速度は2メートルを1秒で移動する速度</t>
     <rPh sb="1" eb="3">
       <t>イドウ</t>
@@ -491,16 +487,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>石田さんハイパーリンクお願いします</t>
-    <rPh sb="0" eb="2">
-      <t>イシダ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・カーソルは常にカメラの中央に表示する</t>
     <rPh sb="6" eb="7">
       <t>ツネ</t>
@@ -2139,6 +2125,656 @@
     <t>糸ゲージ</t>
     <rPh sb="0" eb="1">
       <t>イト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メーターは円状になってる</t>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木にジャンプ成功したときに、着地した瞬間跳んだ長さ分をメーターから減らす</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージで25m,50m,100mの選択時その選択した長さがこの糸ゲージの長さとなる</t>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　↑この時、斜めでのジャンプが基本になるため計算はできる限り細かく(小数点第1まで)</t>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メーターは％風に右側から減っていく(例,100ｍだと10ｍ使うと10%減っていく)</t>
+    <rPh sb="6" eb="7">
+      <t>フウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプした時の長さが残った糸の長さより多い場合は、計算一番古い糸を消去しその長さ分を残った糸の数値に足してから計算する</t>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショウキョ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　↑この時のメーターの数字は一度マイナス表示してから計算後の残糸の長さを表示(例,10→19m跳んだ→－9表示→古い糸13m消去→13m足す→4m表示)</t>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ショウキョ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その糸は敵糸味方糸の残糸の数値には一切関係なしに残る</t>
+    <rPh sb="2" eb="3">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イッサイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奪われた糸は再度上に重ねれば再び糸の所有者が変わる</t>
+    <rPh sb="0" eb="1">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上に重ねた糸が消えても下に重なってた糸は残る</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奪った糸は、固定糸扱いでフィールド内に永遠に残り続ける←陣地取りにおいての最も重要な役割な扱いにする</t>
+    <rPh sb="0" eb="1">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>エイエン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム中に糸が奪われるため、糸が奪われたときはその長さ分メーターが増える</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陣地ゲージ</t>
+    <rPh sb="0" eb="2">
+      <t>ジンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(糸の合計の上限の長さは常に変更する場合があるためプランナー側がunityで長さ調整できるように作ってほしい)</t>
+    <rPh sb="1" eb="2">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラが右側に旋回する</t>
+    <rPh sb="4" eb="6">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陣地ゲージは自分の貼った糸の長さ、糸の本数、陣地木の数　の合計ポイントになる</t>
+    <rPh sb="0" eb="2">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(現在は仮にポイント計算にします　要調整)</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糸の貼った合計の長さ(1mにつき10ポイント)+糸の本数(糸の数1本につき30ポイント )+陣地木の数(1本につき100ポイント) =陣地のスコア</t>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホンスウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ポン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ポン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ジンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵味方同じ計算式</t>
+    <rPh sb="0" eb="3">
+      <t>テキミカタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フローチャート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音楽関係</t>
+    <rPh sb="0" eb="2">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糸</t>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奪った糸</t>
+    <rPh sb="0" eb="1">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AI(敵)</t>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作説明</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2251,7 +2887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2273,6 +2909,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -8967,7 +9604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -8994,51 +9633,76 @@
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="13" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="6"/>
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="13" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
+      <c r="A7" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="13" t="s">
+        <v>131</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
+      <c r="A8" s="13" t="s">
+        <v>124</v>
+      </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
+      <c r="A9" s="13" t="s">
+        <v>125</v>
+      </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
+      <c r="A10" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -9050,12 +9714,491 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="目次!A1" display="目次へ"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B29" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B30" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B31" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B40" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B41" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B42" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B43" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B3" location="プレイヤー!A1" display="プレイヤー"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B39" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="B44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B45" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B46" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B48" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B51" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B52" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B53" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B54" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B55" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F44" location="カメラ!A1" display="カメラへ"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -9082,12 +10225,12 @@
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -9105,53 +10248,51 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>7</v>
@@ -9159,105 +10300,103 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -9269,18 +10408,20 @@
     <hyperlink ref="B2" location="目次!A1" display="目次へ"/>
     <hyperlink ref="P21" location="糸!A1" display="糸"/>
     <hyperlink ref="L17" location="木!A1" display="木"/>
+    <hyperlink ref="G9" location="カメラ!A1" display="カメラ"/>
+    <hyperlink ref="G22" location="カメラ!A1" display="カメラ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -9290,71 +10431,82 @@
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I22" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="10" t="s">
+      <c r="I37" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="10"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" s="10" t="s">
-        <v>75</v>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -9370,7 +10522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -9402,52 +10554,52 @@
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -9461,305 +10613,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B7" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="B2" location="目次!A1" display="目次へ"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="B3" location="プレイヤー!A1" display="プレイヤー"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="12"/>
-    </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B25" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C26" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C27" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C29" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B30" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B32" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B39" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="B44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B45" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B46" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B48" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B51" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B52" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B53" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B54" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B55" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="F44" location="カメラ!A1" display="カメラへ"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/統合用/クモ仕様書(α統合用).xlsx
+++ b/統合用/クモ仕様書(α統合用).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="793" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="793" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="137">
   <si>
     <t>プレイヤー</t>
     <phoneticPr fontId="1"/>
@@ -2775,6 +2775,52 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤色：未完成</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミカンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄色：完成度50%</t>
+    <rPh sb="0" eb="2">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カンセイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青色：完成の70%</t>
+    <rPh sb="0" eb="2">
+      <t>アオイロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑:現段階完成度100%</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ゲンダンカイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カンセイド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2906,10 +2952,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -9602,10 +9648,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9614,7 +9663,7 @@
     <col min="2" max="4" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.65">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -9622,87 +9671,97 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>122</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
         <v>123</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
         <v>124</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
         <v>125</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>132</v>
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -9716,6 +9775,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -9728,10 +9790,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -9809,9 +9871,12 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A3:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -9846,6 +9911,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -9858,10 +9926,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
@@ -9967,6 +10035,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
@@ -9979,10 +10050,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
@@ -10197,7 +10268,7 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -10207,10 +10278,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -10418,6 +10489,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10430,10 +10504,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
@@ -10524,6 +10598,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10536,10 +10613,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
